--- a/raw/ürün_gruplandırma.xlsx
+++ b/raw/ürün_gruplandırma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Tütün Ürünleri</t>
   </si>
@@ -172,9 +172,6 @@
     <t>TAM YAĞLI SÜT</t>
   </si>
   <si>
-    <t>Balık</t>
-  </si>
-  <si>
     <t>DİĞER KORUNMUŞ VEYA İŞLENMİŞ BALIK VE DENİZ ÜRÜNÜ BAZLI MÜSTAHZARLAR</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>DONDURULMUŞ BALIK</t>
   </si>
   <si>
-    <t>Et</t>
-  </si>
-  <si>
     <t>TAZE VEYA SOĞUTULMUŞ BALIK</t>
   </si>
   <si>
@@ -245,6 +239,9 @@
   </si>
   <si>
     <t>Urun Kodu</t>
+  </si>
+  <si>
+    <t>Et ve Balık</t>
   </si>
 </sst>
 </file>
@@ -615,20 +612,20 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C10" sqref="C10:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,10 +633,10 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,10 +644,10 @@
         <v>1112</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,10 +655,10 @@
         <v>1113</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,10 +666,10 @@
         <v>1114</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,10 +677,10 @@
         <v>1115</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,10 +688,10 @@
         <v>1116</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,10 +699,10 @@
         <v>1117</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,10 +710,10 @@
         <v>1118</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,10 +721,10 @@
         <v>1121</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,10 +732,10 @@
         <v>1123</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,10 +743,10 @@
         <v>1124</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,10 +754,10 @@
         <v>1126</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +765,10 @@
         <v>1127</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,10 +776,10 @@
         <v>1128</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,10 +787,10 @@
         <v>1131</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,10 +798,10 @@
         <v>1132</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,10 +809,10 @@
         <v>1133</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,10 +820,10 @@
         <v>1135</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,10 +831,10 @@
         <v>1136</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/raw/ürün_gruplandırma.xlsx
+++ b/raw/ürün_gruplandırma.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>Tütün Ürünleri</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>Et ve Balık</t>
+  </si>
+  <si>
+    <t>FAST FOOD VE PAKET SERVİS HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>KANTİNLER</t>
+  </si>
+  <si>
+    <t>LOKANTALAR, KAFELER, BARLAR, GECE KULÜPLERİ VB</t>
+  </si>
+  <si>
+    <t>Restoran ve Kafe</t>
   </si>
 </sst>
 </file>
@@ -609,15 +621,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -628,7 +640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1111</v>
       </c>
@@ -639,7 +651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1112</v>
       </c>
@@ -650,7 +662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1113</v>
       </c>
@@ -661,7 +673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1114</v>
       </c>
@@ -672,7 +684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1115</v>
       </c>
@@ -683,7 +695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1116</v>
       </c>
@@ -694,7 +706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1117</v>
       </c>
@@ -705,7 +717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1118</v>
       </c>
@@ -716,7 +728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1121</v>
       </c>
@@ -727,7 +739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1123</v>
       </c>
@@ -738,7 +750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1124</v>
       </c>
@@ -749,7 +761,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1126</v>
       </c>
@@ -760,7 +772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1127</v>
       </c>
@@ -771,7 +783,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1128</v>
       </c>
@@ -782,7 +794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1131</v>
       </c>
@@ -793,7 +805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1132</v>
       </c>
@@ -804,7 +816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1133</v>
       </c>
@@ -815,7 +827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1135</v>
       </c>
@@ -826,7 +838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1136</v>
       </c>
@@ -837,7 +849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1141</v>
       </c>
@@ -848,7 +860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1142</v>
       </c>
@@ -859,7 +871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1143</v>
       </c>
@@ -870,7 +882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1144</v>
       </c>
@@ -881,7 +893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1145</v>
       </c>
@@ -892,7 +904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1146</v>
       </c>
@@ -903,7 +915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1147</v>
       </c>
@@ -914,7 +926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1151</v>
       </c>
@@ -925,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1152</v>
       </c>
@@ -936,7 +948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1153</v>
       </c>
@@ -947,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1154</v>
       </c>
@@ -958,7 +970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1155</v>
       </c>
@@ -969,7 +981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1161</v>
       </c>
@@ -980,7 +992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1162</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1163</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1171</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1172</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1173</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1174</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1175</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1181</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1182</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1183</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1184</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1185</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1186</v>
       </c>
@@ -1123,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1191</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1192</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1193</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1194</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1199</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1211</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1212</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1213</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1221</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1222</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1223</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2111</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2121</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2131</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2201</v>
       </c>
@@ -1288,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2203</v>
       </c>
@@ -1297,6 +1309,39 @@
       </c>
       <c r="C62" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>11111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>11112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>11120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/raw/ürün_gruplandırma.xlsx
+++ b/raw/ürün_gruplandırma.xlsx
@@ -250,10 +250,10 @@
     <t>KANTİNLER</t>
   </si>
   <si>
-    <t>LOKANTALAR, KAFELER, BARLAR, GECE KULÜPLERİ VB</t>
-  </si>
-  <si>
     <t>Restoran ve Kafe</t>
+  </si>
+  <si>
+    <t>LOKANTALAR, KAFELER, BARLAR, GECE KULÜPLERİ VB.</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,10 +1316,10 @@
         <v>11111</v>
       </c>
       <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
         <v>78</v>
-      </c>
-      <c r="C63" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
